--- a/docs/weekly_report/week_05/Meeting_Schedule.ver5.xlsx
+++ b/docs/weekly_report/week_05/Meeting_Schedule.ver5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yks\Desktop\github\CapstoneDesign2022_1_DEML\docs\weekly_report\week_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuk6\Desktop\github\CapstoneDesign2022_1_DEML\docs\weekly_report\week_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD27B93B-D8E1-471C-8A40-3007C116637B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3D49D6-E298-47BA-B27F-A06C004484EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11330" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
+    <workbookView xWindow="-8604" yWindow="5028" windowWidth="43200" windowHeight="23352" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,16 +326,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,17 +655,17 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="82.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.25" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" customWidth="1"/>
+    <col min="5" max="5" width="2.19921875" customWidth="1"/>
+    <col min="6" max="6" width="40.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -682,24 +682,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="3"/>
@@ -707,32 +707,32 @@
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21">
+      <c r="F2" s="22"/>
+      <c r="G2" s="23">
         <v>3</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23">
         <v>4</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23">
         <v>5</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="5">
         <v>44624</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -793,7 +793,7 @@
       <c r="A4" s="5">
         <v>44631</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
@@ -818,11 +818,11 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:23" ht="38" customHeight="1">
+    <row r="5" spans="1:23" ht="37.950000000000003" customHeight="1">
       <c r="A5" s="5">
         <v>44638</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
@@ -847,11 +847,11 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:23" ht="31" customHeight="1">
+    <row r="6" spans="1:23" ht="31.05" customHeight="1">
       <c r="A6" s="5">
         <v>44645</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
@@ -876,11 +876,11 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:23" ht="34" customHeight="1">
+    <row r="7" spans="1:23" ht="34.049999999999997" customHeight="1">
       <c r="A7" s="5">
         <v>44652</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="6" t="s">
         <v>21</v>
       </c>

--- a/docs/weekly_report/week_05/Meeting_Schedule.ver5.xlsx
+++ b/docs/weekly_report/week_05/Meeting_Schedule.ver5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuk6\Desktop\github\CapstoneDesign2022_1_DEML\docs\weekly_report\week_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3D49D6-E298-47BA-B27F-A06C004484EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CB71B1-063B-4ADF-B47A-3AEE94588342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8604" yWindow="5028" windowWidth="43200" windowHeight="23352" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
+    <workbookView xWindow="2880" yWindow="2568" windowWidth="43200" windowHeight="23352" xr2:uid="{11C47D75-4F89-4C6E-A9E0-FC4D56E35079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,46 @@
   </si>
   <si>
     <t>7,4 hamming code의 환경으로 Sum Product Algorithm을 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,4 hamming code의 환경으로 Sum Product Algorithm을 구현 + LLR을 이용하여 연산의 효율성을 높임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존의 MATLAB기반 코드를 분석 및 오픈소스 등록을 위한 회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간고사로 인한 스케쥴 관리 및 현대 통신의 역사 스터디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5G의 기초가 되는 LDPC 분석 및 이해 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈 소스 등록을 위한 기존의 MAT형식의 파일 py파일로 형변환 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sparse Matirx를 사용한 LDPC 구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 서울에서 열리는 IEEE ICC학회 참석 현재 5G기술의 현황 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신 시스템에 DNN접목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN 및 Unet을 LDPC에 적용하여 5G NR에 접목 + Github 관리 + 기말 보고서 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +235,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,19 +387,40 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,7 +740,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -682,24 +767,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="9"/>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="3"/>
@@ -707,35 +792,35 @@
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23">
+      <c r="F2" s="19"/>
+      <c r="G2" s="20">
         <v>3</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20">
         <v>4</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23">
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20">
         <v>5</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="5">
         <v>44624</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="15">
@@ -793,7 +878,9 @@
       <c r="A4" s="5">
         <v>44631</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
@@ -822,7 +909,7 @@
       <c r="A5" s="5">
         <v>44638</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
@@ -851,7 +938,7 @@
       <c r="A6" s="5">
         <v>44645</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
@@ -880,7 +967,7 @@
       <c r="A7" s="5">
         <v>44652</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
@@ -905,13 +992,17 @@
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" ht="34.799999999999997">
       <c r="A8" s="5">
         <v>44659</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="7" t="s">
         <v>7</v>
@@ -934,37 +1025,54 @@
       <c r="A9" s="5">
         <v>44666</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="5">
         <v>44673</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="5">
         <v>44680</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="5">
         <v>44687</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="G12" t="s">
         <v>12</v>
@@ -975,9 +1083,13 @@
       <c r="A13" s="5">
         <v>44694</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="G13" t="s">
         <v>14</v>
@@ -988,9 +1100,13 @@
       <c r="A14" s="5">
         <v>44701</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="G14" t="s">
         <v>13</v>
@@ -1001,16 +1117,22 @@
       <c r="A15" s="5">
         <v>44708</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="5">
         <v>44715</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="9"/>
@@ -1055,13 +1177,15 @@
       <c r="O23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:B7"/>
+  <mergeCells count="8">
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="G1:S1"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B4:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
